--- a/Assets/Resources/IngameData/DataBase.xlsx
+++ b/Assets/Resources/IngameData/DataBase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB88D6-2500-456E-B76F-9AC56891460E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03F3E3D-DB8A-44C2-A6FC-77F80B4D7F52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="897" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="897" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3.Script" sheetId="2" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="12.CutSceneControl" sheetId="21" r:id="rId9"/>
     <sheet name="Interaction" sheetId="10" r:id="rId10"/>
     <sheet name="DollTalk" sheetId="14" r:id="rId11"/>
-    <sheet name="Anima" sheetId="17" r:id="rId12"/>
-    <sheet name="Stella" sheetId="8" r:id="rId13"/>
-    <sheet name="Item" sheetId="1" r:id="rId14"/>
-    <sheet name="SaveData" sheetId="7" r:id="rId15"/>
+    <sheet name="SceneInfo" sheetId="22" r:id="rId12"/>
+    <sheet name="Anima" sheetId="17" r:id="rId13"/>
+    <sheet name="Stella" sheetId="8" r:id="rId14"/>
+    <sheet name="Item" sheetId="1" r:id="rId15"/>
+    <sheet name="SaveData" sheetId="7" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="389">
   <si>
     <t>더미</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2099,6 +2100,82 @@
   </si>
   <si>
     <t>심심한데..뭔가 재밌는 게 없나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum SceneName 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isProfileActivate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isCharacterExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMovable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 존재여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 표시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 움직임 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isInputAvaliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CameraMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력 받음 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girl_room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_E1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1_R2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2267,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2337,6 +2414,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2664,10 +2744,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -3448,22 +3528,22 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -4815,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36C5E1-6220-48F6-83A5-BBC5AD8758FF}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4843,10 +4923,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5035,6 +5115,294 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58802A3F-8600-4171-85E3-0C7795322A86}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="16" customWidth="1"/>
+    <col min="4" max="6" width="22" style="16" customWidth="1"/>
+    <col min="7" max="7" width="19" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="26">
+        <f xml:space="preserve"> COUNTA(B5:B2000)</f>
+        <v>7</v>
+      </c>
+      <c r="C1" s="26">
+        <f>COUNTA(3:3) - 1</f>
+        <v>7</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G5" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="16">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="16">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="16">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="16">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D44B4B-E1F2-4995-A8CD-CF532127F36C}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -5067,10 +5435,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="74.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5286,7 +5654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C685097E-BB1D-45BB-ADE3-3DDF33F5776B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -5319,10 +5687,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>6</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -5561,7 +5929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -5592,10 +5960,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -5804,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED4D25F-A186-43DA-B17F-8A5D453FA7CA}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -6003,10 +6371,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="5"/>
@@ -6265,14 +6633,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>3</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="6" t="s">
         <v>124</v>
       </c>
@@ -6613,14 +6981,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -6876,10 +7244,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7168,10 +7536,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>4</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="5"/>
@@ -7409,14 +7777,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
@@ -7713,10 +8081,10 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7980,14 +8348,14 @@
         <f>COUNTA(3:3) - 1</f>
         <v>5</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="27"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
